--- a/biology/Botanique/Maïs_génétiquement_modifié/Maïs_génétiquement_modifié.xlsx
+++ b/biology/Botanique/Maïs_génétiquement_modifié/Maïs_génétiquement_modifié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Maïs_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un maïs génétiquement modifié est une variété cultivée (cultivar) de maïs (Zea mays) dont le patrimoine génétique a été modifié par l'Homme. Lorsque des gènes étrangers sont introduits par transgénèse dans le génome du maïs, on parle de « maïs transgénique ».
 La plupart des maïs génétiquement modifiés sont des variétés transgéniques qui se classent dans deux grandes catégories : les variétés résistantes à des insectes ravageurs (maïs Bt) et les variétés résistantes à des herbicides. Il existe aussi des variétés combinant ces deux types de caractères.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Maïs_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Variétés résistantes à des insectes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maïs Bt :
 Bt 176, résistant à la pyrale du maïs
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Maïs_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Variétés tolérantes à des herbicides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>T 25, tolérant un herbicide, le glufosinate d'ammonium
 NK 603, tolérant un herbicide, le glyphosate plus connu sous le nom de Roundup commercialisé par l'entreprise Monsanto</t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_g%C3%A9n%C3%A9tiquement_modifi%C3%A9</t>
+          <t>Maïs_génétiquement_modifié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Autres variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Maïs tolérant la sécheresse - MON 87460 : cette variété inclut deux gènes : CspB provenant de Bacillus subtilis, exprimant la protéine B de réponse au choc froid, et NPTII provenant d'Escherichia coli exprimant la néomycine phosphotransférase II (gène de sélection induisant la résistance à la kanamycine). Cette lignée, créée par Monsanto, a été homologuée aux États-Unis en décembre 2011[1],[2],[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maïs tolérant la sécheresse - MON 87460 : cette variété inclut deux gènes : CspB provenant de Bacillus subtilis, exprimant la protéine B de réponse au choc froid, et NPTII provenant d'Escherichia coli exprimant la néomycine phosphotransférase II (gène de sélection induisant la résistance à la kanamycine). Cette lignée, créée par Monsanto, a été homologuée aux États-Unis en décembre 2011</t>
         </is>
       </c>
     </row>
